--- a/Progress Tracker.xlsx
+++ b/Progress Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\H\Tipo work\Education\IBM_DS\IBM_Data_Science_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8C142E-E15E-4DCD-A86C-D38A9B35EA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A915515E-29C1-4724-B55C-2695B2917F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="315" windowWidth="21690" windowHeight="15750" xr2:uid="{674B3F89-73C9-4642-AF58-FA2764045651}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{674B3F89-73C9-4642-AF58-FA2764045651}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,12 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -193,6 +196,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,184 +518,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7940694-BC15-4BD3-B767-477252592152}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="B1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
